--- a/Output/spatial_lag_unformated.xlsx
+++ b/Output/spatial_lag_unformated.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">-0.229*</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.117)</t>
+    <t xml:space="preserve">(0.118)</t>
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">(1.423)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.071)</t>
+    <t xml:space="preserve">(0.069)</t>
   </si>
   <si>
     <t xml:space="preserve">(4)</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">(3.539)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.072)</t>
+    <t xml:space="preserve">(0.065)</t>
   </si>
   <si>
     <t xml:space="preserve">Street  robbery</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">(2.707)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.066)</t>
+    <t xml:space="preserve">(0.063)</t>
   </si>
   <si>
     <t xml:space="preserve">(6)</t>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t xml:space="preserve">(6.696)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.074)</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1049,7 @@
         <v>62</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
